--- a/medicine/Psychotrope/Degré_Balling/Degré_Balling.xlsx
+++ b/medicine/Psychotrope/Degré_Balling/Degré_Balling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Degr%C3%A9_Balling</t>
+          <t>Degré_Balling</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le degré Balling noté « °B » est une unité indiquée par densimètre à flotteur (ou saccharimètre), étalonné à 17,5 °C. Inventé en 1843 et perfectionné jusqu'en 1862 par le chimiste tchèque Karl Josef Napoléon Balling, il permet d'estimer la teneur en alcool d'une bière à partir de la densité primitive de moût par la mesure directe du poids du sucre d’une solution. Il donne la concentration d'une solution de saccharose exprimée en pourcentage de son poids avant fermentation ; par exemple :
 1 °B = 1 g de matière sèche soluble (sucre) pour 100 g de solution sucrée à 17,5 °C. Ainsi une bière à 12 °B aura 12 g de sucre.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Degr%C3%A9_Balling</t>
+          <t>Degré_Balling</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Degrees Plato to Specific Gravity Conversion
  Portail de la bière                     </t>
